--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,66 +40,66 @@
     <t>name</t>
   </si>
   <si>
-    <t>evil</t>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>weird</t>
   </si>
   <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
     <t>worst</t>
   </si>
   <si>
+    <t>fucking</t>
+  </si>
+  <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>fucking</t>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>hate</t>
   </si>
   <si>
     <t>addicted</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
     <t>scary</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>false</t>
+  </si>
+  <si>
+    <t>crazy</t>
   </si>
   <si>
     <t>behind</t>
   </si>
   <si>
+    <t>bad</t>
+  </si>
+  <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -112,33 +112,30 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
+    <t>interesting</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>powerful</t>
+    <t>good</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>good</t>
+    <t>love</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>first</t>
   </si>
   <si>
@@ -151,34 +148,46 @@
     <t>new</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
     <t>many</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>social</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>really</t>
   </si>
   <si>
     <t>right</t>
   </si>
   <si>
-    <t>really</t>
+    <t>much</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>world</t>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>media</t>
   </si>
   <si>
     <t>documentary</t>
@@ -187,22 +196,16 @@
     <t>watching</t>
   </si>
   <si>
-    <t>netflix</t>
+    <t>…</t>
   </si>
   <si>
     <t>watch</t>
   </si>
   <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>dilemma</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
     <t>’</t>
+  </si>
+  <si>
+    <t>watched</t>
   </si>
   <si>
     <t>positive</t>
@@ -563,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,7 +577,7 @@
         <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -632,13 +635,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -650,19 +653,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -674,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -682,13 +685,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9519230769230769</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C4">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -700,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K4">
-        <v>0.8666666666666667</v>
+        <v>0.88</v>
       </c>
       <c r="L4">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -724,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -732,13 +735,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9393939393939394</v>
+        <v>0.9038461538461539</v>
       </c>
       <c r="C5">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="D5">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -750,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K5">
-        <v>0.86</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -774,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -782,13 +785,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9333333333333333</v>
+        <v>0.9</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -800,19 +803,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K6">
-        <v>0.7931034482758621</v>
+        <v>0.7719298245614035</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -824,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -832,7 +835,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9333333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C7">
         <v>14</v>
@@ -850,19 +853,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K7">
-        <v>0.7894736842105263</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L7">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="M7">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -874,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -882,13 +885,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.875</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -906,13 +909,13 @@
         <v>36</v>
       </c>
       <c r="K8">
-        <v>0.7368421052631579</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L8">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="M8">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -924,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -932,13 +935,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.75</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -950,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>37</v>
@@ -982,13 +985,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7246376811594203</v>
+        <v>0.75</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1000,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K10">
-        <v>0.7066666666666667</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L10">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="M10">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1024,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1032,13 +1035,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7058823529411765</v>
+        <v>0.7</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1050,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K11">
-        <v>0.6333333333333333</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="L11">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M11">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1074,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1085,10 +1088,10 @@
         <v>0.7</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1100,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K12">
-        <v>0.6296296296296297</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1124,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1132,13 +1135,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.631578947368421</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1156,7 +1159,7 @@
         <v>41</v>
       </c>
       <c r="K13">
-        <v>0.5454545454545454</v>
+        <v>0.5</v>
       </c>
       <c r="L13">
         <v>18</v>
@@ -1174,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1182,13 +1185,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6170212765957447</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C14">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1200,19 +1203,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K14">
-        <v>0.4166666666666667</v>
+        <v>0.4375</v>
       </c>
       <c r="L14">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M14">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1224,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1232,13 +1235,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6153846153846154</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1250,19 +1253,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K15">
-        <v>0.4166666666666667</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="L15">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M15">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1274,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1282,13 +1285,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5714285714285714</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1300,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K16">
-        <v>0.3389830508474576</v>
+        <v>0.3114754098360656</v>
       </c>
       <c r="L16">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M16">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1324,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1332,13 +1335,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5652173913043478</v>
+        <v>0.6376811594202898</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1350,19 +1353,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K17">
-        <v>0.3170731707317073</v>
+        <v>0.3105646630236794</v>
       </c>
       <c r="L17">
-        <v>13</v>
+        <v>341</v>
       </c>
       <c r="M17">
-        <v>13</v>
+        <v>341</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1374,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>28</v>
+        <v>757</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1382,13 +1385,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5428571428571428</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1400,19 +1403,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K18">
-        <v>0.2950819672131147</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="L18">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M18">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1424,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1432,7 +1435,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5128205128205128</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C19">
         <v>20</v>
@@ -1450,19 +1453,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K19">
-        <v>0.2914389799635702</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="L19">
-        <v>320</v>
+        <v>12</v>
       </c>
       <c r="M19">
-        <v>320</v>
+        <v>12</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1474,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>778</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1482,7 +1485,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C20">
         <v>14</v>
@@ -1500,31 +1503,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K20">
-        <v>0.2641509433962264</v>
+        <v>0.2315789473684211</v>
       </c>
       <c r="L20">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M20">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N20">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1532,13 +1535,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C21">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1550,19 +1553,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K21">
-        <v>0.2631578947368421</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L21">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="M21">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1574,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>70</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1606,13 +1609,13 @@
         <v>50</v>
       </c>
       <c r="K22">
-        <v>0.2054794520547945</v>
+        <v>0.2153846153846154</v>
       </c>
       <c r="L22">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M22">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1624,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1632,13 +1635,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.217948717948718</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="C23">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1650,19 +1653,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K23">
-        <v>0.1882352941176471</v>
+        <v>0.2</v>
       </c>
       <c r="L23">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M23">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1674,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1682,37 +1685,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.05536332179930796</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D24">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>0.38</v>
+        <v>0.22</v>
       </c>
       <c r="F24">
-        <v>0.62</v>
+        <v>0.78</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K24">
-        <v>0.1846153846153846</v>
+        <v>0.1971830985915493</v>
       </c>
       <c r="L24">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M24">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1724,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1732,13 +1735,13 @@
         <v>53</v>
       </c>
       <c r="K25">
-        <v>0.1830985915492958</v>
+        <v>0.1917808219178082</v>
       </c>
       <c r="L25">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M25">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1750,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1758,13 +1761,13 @@
         <v>54</v>
       </c>
       <c r="K26">
-        <v>0.1791044776119403</v>
+        <v>0.1094890510948905</v>
       </c>
       <c r="L26">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M26">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1776,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>55</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1784,13 +1787,13 @@
         <v>55</v>
       </c>
       <c r="K27">
-        <v>0.1166077738515901</v>
+        <v>0.1079365079365079</v>
       </c>
       <c r="L27">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M27">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1802,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>250</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1810,13 +1813,13 @@
         <v>56</v>
       </c>
       <c r="K28">
-        <v>0.1114369501466276</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="L28">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="M28">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1828,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>303</v>
+        <v>490</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1836,13 +1839,13 @@
         <v>57</v>
       </c>
       <c r="K29">
-        <v>0.1092592592592593</v>
+        <v>0.0858433734939759</v>
       </c>
       <c r="L29">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M29">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1854,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>481</v>
+        <v>607</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1862,13 +1865,13 @@
         <v>58</v>
       </c>
       <c r="K30">
-        <v>0.08766233766233766</v>
+        <v>0.07067137809187279</v>
       </c>
       <c r="L30">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="M30">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1880,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>562</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1888,13 +1891,13 @@
         <v>59</v>
       </c>
       <c r="K31">
-        <v>0.08283132530120482</v>
+        <v>0.07038123167155426</v>
       </c>
       <c r="L31">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="M31">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1906,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>609</v>
+        <v>317</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1914,25 +1917,25 @@
         <v>60</v>
       </c>
       <c r="K32">
-        <v>0.07936507936507936</v>
+        <v>0.06978085351787774</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>290</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1940,13 +1943,13 @@
         <v>61</v>
       </c>
       <c r="K33">
-        <v>0.06113033448673587</v>
+        <v>0.06504065040650407</v>
       </c>
       <c r="L33">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="M33">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="N33">
         <v>0.98</v>
@@ -1958,7 +1961,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>1628</v>
+        <v>575</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1966,25 +1969,51 @@
         <v>62</v>
       </c>
       <c r="K34">
-        <v>0.05256410256410256</v>
+        <v>0.04609475032010243</v>
       </c>
       <c r="L34">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M34">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N34">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>739</v>
+        <v>745</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K35">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="L35">
+        <v>12</v>
+      </c>
+      <c r="M35">
+        <v>12</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
